--- a/CHEQUEAR DEFICIT-PBI.xlsx
+++ b/CHEQUEAR DEFICIT-PBI.xlsx
@@ -1,16 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delva\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47149813-195C-49F9-BABC-0643E174F337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="28215" windowHeight="13230"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
     <sheet name="CALCULO" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -323,13 +339,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,7 +380,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,11 +442,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -436,6 +458,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -725,16 +750,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -760,307 +785,307 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1.0571393230735606E-2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>3.8818823324183183E-2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3.1535287482900839E-2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>9.5272799639170541E-2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>-1.5041611947434058E-2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>6.5008632710493577E-2</v>
       </c>
-      <c r="H2" s="8">
-        <v>-2.766807875312843E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="7">
+        <v>-2.7668078753128429E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>-0.22695184211032521</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>-0.25062121450121039</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>-0.13083379592827082</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0.13374424851325326</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>-0.12486946395619539</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>1.4356469117292398E-2</v>
       </c>
-      <c r="H3" s="8">
-        <v>-0.15406729384402612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="7">
+        <v>-1.5406729384402611E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>-0.65528951023528137</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>-0.44740122316858411</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>-0.24884750133092357</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>5.9179395899679646E-2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>-0.6230520132793288</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>-0.18673131334842027</v>
       </c>
-      <c r="H4" s="8">
-        <v>-0.31935518470806434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="7">
+        <v>-3.1935518470806432E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>-0.67510712086025504</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>-0.56834832453164141</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>-0.28648167989609152</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>5.107712009903187E-2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>-1.6092893113249747</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>-0.17348652864884184</v>
       </c>
-      <c r="H5" s="8">
-        <v>-0.45056175712712976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="7">
+        <v>-3.412067089320864E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>-0.81741052122793423</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>-0.82634096129389367</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>-0.34065385476098292</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.17340141360981201</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>-2.6601743354651046</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>-0.11813556042412601</v>
       </c>
-      <c r="H6" s="8">
-        <v>-0.71967260969077895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="7">
+        <v>-5.4500214183040539E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>-1.3404089715111125</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>-1.3665727729253825</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>-0.73329506426675983</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.14232701735501593</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>-3.7211764808665801</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>-0.44795087858666183</v>
       </c>
-      <c r="H7" s="8">
-        <v>-1.2526266521558325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="7">
+        <v>-9.486038500646941E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>-1.60836936984682</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>-1.4966613829753219</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>-0.78621453766019567</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.1547438553142336</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>-3.8091705997686685</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>-0.64936633151690848</v>
       </c>
-      <c r="H8" s="8">
-        <v>-1.2558499493710404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="7">
+        <v>-1.1000000025096143E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>-2.0236723893100916</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>-1.7184107848523533</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>-0.85400854868081733</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.21637482503497379</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>-4.1353056111731474</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>-0.91370396707120338</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>-2.4577590593381236</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>-2.0004538658317514</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>-1.003615039939227</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.10263544228883761</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>-4.744513462262292</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>-1.2016242748696264</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>-3.0283655543312187</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>-2.173687701181628</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>-1.0104858797923997</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.12461648776273865</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>-4.2715558325249221</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>-1.4272481676290962</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>-3.1767372082931047</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>-2.4266554956170632</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>-1.2113341993584839</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>9.9243876445100424E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>-4.4527519064220407</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>-1.6747010998184235</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>-4.1749982804733552</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>-3.7911223028363596</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>-2.299027823549237</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>-0.44122622830148434</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>-6.4346836209505351</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>-3.0414406953731472</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1068,21 +1093,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D73" sqref="D62:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1138,7 @@
         <f>B2</f>
         <v>740.70000000001198</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>C2/$E$2</f>
         <v>1.0571393230735607E-4</v>
       </c>
@@ -1124,7 +1149,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1160,7 @@
         <f>B3+C2</f>
         <v>-15901.709999999988</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D4" si="0">C3/$E$2</f>
         <v>-2.269518421103252E-3</v>
       </c>
@@ -1143,7 +1168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1179,7 @@
         <f t="shared" ref="C4:C13" si="1">B4+C3</f>
         <v>-45913.81</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>-6.5528951023528141E-3</v>
       </c>
@@ -1162,7 +1187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1173,7 +1198,7 @@
         <f t="shared" si="1"/>
         <v>-56807.270000000033</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>C5/$E$5</f>
         <v>-6.7510712086025501E-3</v>
       </c>
@@ -1184,7 +1209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1220,7 @@
         <f t="shared" si="1"/>
         <v>-68781.470000000016</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" ref="D6:D7" si="2">C6/$E$5</f>
         <v>-8.1741052122793426E-3</v>
       </c>
@@ -1203,7 +1228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1239,7 @@
         <f t="shared" si="1"/>
         <v>-112789.47000000003</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="2"/>
         <v>-1.3404089715111126E-2</v>
       </c>
@@ -1222,7 +1247,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1258,7 @@
         <f t="shared" si="1"/>
         <v>-137155.77000000005</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>C8/$E$8</f>
         <v>-1.60836936984682E-2</v>
       </c>
@@ -1244,7 +1269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1255,7 +1280,7 @@
         <f t="shared" si="1"/>
         <v>-172571.27000000002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" ref="D9:D10" si="3">C9/$E$8</f>
         <v>-2.0236723893100914E-2</v>
       </c>
@@ -1263,7 +1288,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1274,7 +1299,7 @@
         <f t="shared" si="1"/>
         <v>-209588.57</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="3"/>
         <v>-2.4577590593381236E-2</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1318,7 @@
         <f t="shared" si="1"/>
         <v>-271456.87</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>C11/$E$11</f>
         <v>-3.0283655543312187E-2</v>
       </c>
@@ -1304,7 +1329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1340,7 @@
         <f t="shared" si="1"/>
         <v>-284756.62</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" ref="D12" si="4">C12/$E$11</f>
         <v>-3.1767372082931046E-2</v>
       </c>
@@ -1323,7 +1348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1359,7 @@
         <f t="shared" si="1"/>
         <v>-343525.51999999996</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>C13/E13</f>
         <v>-4.1749982804733556E-2</v>
       </c>
@@ -1345,7 +1370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1356,7 +1381,7 @@
         <f>B14</f>
         <v>3587.2000000000412</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>C14/$E$14</f>
         <v>3.8818823324183186E-4</v>
       </c>
@@ -1367,7 +1392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +1403,7 @@
         <f>B15+C14</f>
         <v>-23159.59999999998</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" ref="D15:D16" si="5">C15/$E$14</f>
         <v>-2.5062121450121037E-3</v>
       </c>
@@ -1386,7 +1411,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1422,7 @@
         <f t="shared" ref="C16:C25" si="6">B16+C15</f>
         <v>-41343.799999999959</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="5"/>
         <v>-4.474012231685841E-3</v>
       </c>
@@ -1405,7 +1430,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1441,7 @@
         <f t="shared" si="6"/>
         <v>-60007.399999999965</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f>C17/$E$17</f>
         <v>-5.6834832453164143E-3</v>
       </c>
@@ -1427,7 +1452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1438,7 +1463,7 @@
         <f t="shared" si="6"/>
         <v>-87246.79999999993</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f t="shared" ref="D18:D19" si="7">C18/$E$17</f>
         <v>-8.2634096129389368E-3</v>
       </c>
@@ -1446,7 +1471,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1482,7 @@
         <f t="shared" si="6"/>
         <v>-144285.59999999992</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" si="7"/>
         <v>-1.3665727729253825E-2</v>
       </c>
@@ -1465,7 +1490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1501,7 @@
         <f t="shared" si="6"/>
         <v>-166375.20000000001</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f>C20/$E$20</f>
         <v>-1.4966613829753219E-2</v>
       </c>
@@ -1487,7 +1512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1523,7 @@
         <f t="shared" si="6"/>
         <v>-191025.8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f t="shared" ref="D21:D22" si="8">C21/$E$20</f>
         <v>-1.7184107848523533E-2</v>
       </c>
@@ -1506,7 +1531,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1542,7 @@
         <f t="shared" si="6"/>
         <v>-222378.9</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="8"/>
         <v>-2.0004538658317514E-2</v>
       </c>
@@ -1525,7 +1550,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1536,7 +1561,7 @@
         <f t="shared" si="6"/>
         <v>-254873.69999999995</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f>C23/$E$23</f>
         <v>-2.1736877011816279E-2</v>
       </c>
@@ -1547,7 +1572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1558,7 +1583,7 @@
         <f t="shared" si="6"/>
         <v>-284535.19999999995</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f t="shared" ref="D24" si="9">C24/$E$23</f>
         <v>-2.4266554956170631E-2</v>
       </c>
@@ -1566,7 +1591,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1577,18 +1602,18 @@
         <f t="shared" si="6"/>
         <v>-404142.30000000005</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f>C25/E25</f>
         <v>-3.7911223028363597E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>10660228.494808454</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1599,7 +1624,7 @@
         <f>B26</f>
         <v>3928.5999999999772</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <f>C26/$E$26</f>
         <v>3.1535287482900836E-4</v>
       </c>
@@ -1610,7 +1635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1646,7 @@
         <f>B27+C26</f>
         <v>-16299.000000000033</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <f t="shared" ref="D27:D28" si="10">C27/$E$26</f>
         <v>-1.3083379592827083E-3</v>
       </c>
@@ -1629,7 +1654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1640,7 +1665,7 @@
         <f t="shared" ref="C28:C37" si="11">B28+C27</f>
         <v>-31000.9</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <f t="shared" si="10"/>
         <v>-2.4884750133092356E-3</v>
       </c>
@@ -1648,7 +1673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1659,7 +1684,7 @@
         <f t="shared" si="11"/>
         <v>-41343.299999999974</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <f>C29/$E$29</f>
         <v>-2.8648167989609153E-3</v>
       </c>
@@ -1670,7 +1695,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1681,7 +1706,7 @@
         <f t="shared" si="11"/>
         <v>-49161.099999999962</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <f t="shared" ref="D30:D31" si="12">C30/$E$29</f>
         <v>-3.4065385476098292E-3</v>
       </c>
@@ -1689,7 +1714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1700,7 +1725,7 @@
         <f t="shared" si="11"/>
         <v>-105824.69999999998</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f t="shared" si="12"/>
         <v>-7.3329506426675984E-3</v>
       </c>
@@ -1708,7 +1733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1719,7 +1744,7 @@
         <f t="shared" si="11"/>
         <v>-120104.2999999999</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <f>C32/$E$32</f>
         <v>-7.8621453766019572E-3</v>
       </c>
@@ -1730,7 +1755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1741,7 +1766,7 @@
         <f t="shared" si="11"/>
         <v>-130460.6999999999</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <f t="shared" ref="D33:D34" si="13">C33/$E$32</f>
         <v>-8.540085486808173E-3</v>
       </c>
@@ -1749,7 +1774,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1760,7 +1785,7 @@
         <f t="shared" si="11"/>
         <v>-153314.99999999988</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="13"/>
         <v>-1.003615039939227E-2</v>
       </c>
@@ -1768,7 +1793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1779,7 +1804,7 @@
         <f t="shared" si="11"/>
         <v>-169900.89999999979</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <f>C35/$E$35</f>
         <v>-1.0104858797923997E-2</v>
       </c>
@@ -1790,7 +1815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1801,7 +1826,7 @@
         <f t="shared" si="11"/>
         <v>-203671.09999999977</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <f t="shared" ref="D36" si="14">C36/$E$35</f>
         <v>-1.2113341993584839E-2</v>
       </c>
@@ -1809,7 +1834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1820,18 +1845,18 @@
         <f t="shared" si="11"/>
         <v>-338987.29999999981</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <f>C37/E37</f>
         <v>-2.2990278235492368E-2</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>14744810.677265817</v>
       </c>
       <c r="F37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1842,7 +1867,7 @@
         <f>B38</f>
         <v>16657.600000000031</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <f>C38/$E$38</f>
         <v>9.5272799639170536E-4</v>
       </c>
@@ -1853,7 +1878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1864,7 +1889,7 @@
         <f>B39+C38</f>
         <v>23383.990000000045</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <f t="shared" ref="D39:D40" si="15">C39/$E$38</f>
         <v>1.3374424851325326E-3</v>
       </c>
@@ -1872,7 +1897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1883,7 +1908,7 @@
         <f t="shared" ref="C40:C49" si="16">B40+C39</f>
         <v>10346.990000000045</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <f t="shared" si="15"/>
         <v>5.9179395899679643E-4</v>
       </c>
@@ -1891,7 +1916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1902,7 +1927,7 @@
         <f t="shared" si="16"/>
         <v>10845.490000000045</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <f>C41/$E$41</f>
         <v>5.1077120099031871E-4</v>
       </c>
@@ -1913,7 +1938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1924,7 +1949,7 @@
         <f t="shared" si="16"/>
         <v>36819.290000000095</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <f t="shared" ref="D42:D43" si="17">C42/$E$41</f>
         <v>1.7340141360981201E-3</v>
       </c>
@@ -1932,7 +1957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1943,7 +1968,7 @@
         <f t="shared" si="16"/>
         <v>30221.090000000142</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <f t="shared" si="17"/>
         <v>1.4232701735501594E-3</v>
       </c>
@@ -1951,7 +1976,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1962,7 +1987,7 @@
         <f t="shared" si="16"/>
         <v>34513.890000000247</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <f>C44/$E$44</f>
         <v>1.5474385531423359E-3</v>
       </c>
@@ -1973,7 +1998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1984,7 +2009,7 @@
         <f t="shared" si="16"/>
         <v>48259.990000000165</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <f t="shared" ref="D45:D46" si="18">C45/$E$44</f>
         <v>2.163748250349738E-3</v>
       </c>
@@ -1992,7 +2017,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2003,7 +2028,7 @@
         <f t="shared" si="16"/>
         <v>22891.690000000177</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <f t="shared" si="18"/>
         <v>1.0263544228883762E-3</v>
       </c>
@@ -2011,7 +2036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2022,7 +2047,7 @@
         <f t="shared" si="16"/>
         <v>31418.590000000142</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <f>C47/$E$47</f>
         <v>1.2461648776273865E-3</v>
       </c>
@@ -2033,7 +2058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2044,7 +2069,7 @@
         <f t="shared" si="16"/>
         <v>25021.590000000142</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <f t="shared" ref="D48" si="19">C48/$E$47</f>
         <v>9.9243876445100424E-4</v>
       </c>
@@ -2052,7 +2077,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2063,18 +2088,18 @@
         <f t="shared" si="16"/>
         <v>-95121.509999999864</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <f>C49/E49</f>
         <v>-4.4122622830148435E-3</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>21558444.149200607</v>
       </c>
       <c r="F49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2085,7 +2110,7 @@
         <f>B50</f>
         <v>-3765.8999999999651</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <f>C50/$E$50</f>
         <v>-1.5041611947434058E-4</v>
       </c>
@@ -2096,7 +2121,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2107,7 +2132,7 @@
         <f>B51+C50</f>
         <v>-31263.000000000055</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <f t="shared" ref="D51:D52" si="20">C51/$E$50</f>
         <v>-1.2486946395619538E-3</v>
       </c>
@@ -2115,7 +2140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2126,7 +2151,7 @@
         <f t="shared" ref="C52:C61" si="21">B52+C51</f>
         <v>-155990.70000000004</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <f t="shared" si="20"/>
         <v>-6.2305201327932883E-3</v>
       </c>
@@ -2134,7 +2159,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2145,7 +2170,7 @@
         <f t="shared" si="21"/>
         <v>-384812.30000000028</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <f>C53/$E$53</f>
         <v>-1.6092893113249747E-2</v>
       </c>
@@ -2156,7 +2181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2167,7 +2192,7 @@
         <f t="shared" si="21"/>
         <v>-636099.3000000004</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <f t="shared" ref="D54:D55" si="22">C54/$E$53</f>
         <v>-2.6601743354651045E-2</v>
       </c>
@@ -2175,7 +2200,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2186,7 +2211,7 @@
         <f t="shared" si="21"/>
         <v>-889805.50000000047</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <f t="shared" si="22"/>
         <v>-3.7211764808665802E-2</v>
       </c>
@@ -2194,7 +2219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2205,7 +2230,7 @@
         <f t="shared" si="21"/>
         <v>-1045329.3000000005</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <f>C56/$E$56</f>
         <v>-3.8091705997686687E-2</v>
       </c>
@@ -2216,7 +2241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2227,7 +2252,7 @@
         <f t="shared" si="21"/>
         <v>-1134828.7000000007</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <f t="shared" ref="D57:D58" si="23">C57/$E$56</f>
         <v>-4.1353056111731477E-2</v>
       </c>
@@ -2235,7 +2260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2246,7 +2271,7 @@
         <f t="shared" si="21"/>
         <v>-1302010.1900000006</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <f t="shared" si="23"/>
         <v>-4.7445134622622918E-2</v>
       </c>
@@ -2254,7 +2279,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2265,7 +2290,7 @@
         <f t="shared" si="21"/>
         <v>-1383636.8900000006</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <f>C59/$E$59</f>
         <v>-4.2715558325249224E-2</v>
       </c>
@@ -2276,7 +2301,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2287,7 +2312,7 @@
         <f t="shared" si="21"/>
         <v>-1442329.6900000006</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <f t="shared" ref="D60" si="24">C60/$E$59</f>
         <v>-4.4527519064220408E-2</v>
       </c>
@@ -2295,7 +2320,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2306,18 +2331,18 @@
         <f t="shared" si="21"/>
         <v>-1749957.1900000009</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <f>C61/E61</f>
         <v>-6.4346836209505348E-2</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>27195699.0131163</v>
       </c>
       <c r="F61" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2328,7 +2353,7 @@
         <f>B62</f>
         <v>24073.59999999974</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <f>C62/$E$62</f>
         <v>6.5008632710493572E-4</v>
       </c>
@@ -2339,7 +2364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2350,7 +2375,7 @@
         <f>B63+C62</f>
         <v>5316.3999999996704</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <f t="shared" ref="D63:D64" si="25">C63/$E$62</f>
         <v>1.4356469117292399E-4</v>
       </c>
@@ -2358,7 +2383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2369,7 +2394,7 @@
         <f t="shared" ref="C64:C73" si="26">B64+C63</f>
         <v>-69149.200000000303</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <f t="shared" si="25"/>
         <v>-1.8673131334842026E-3</v>
       </c>
@@ -2377,7 +2402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2388,7 +2413,7 @@
         <f t="shared" si="26"/>
         <v>-80594.100000000326</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <f>C65/$E$65</f>
         <v>-1.7348652864884184E-3</v>
       </c>
@@ -2399,7 +2424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2410,7 +2435,7 @@
         <f t="shared" si="26"/>
         <v>-54880.510000000242</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <f t="shared" ref="D66:D67" si="27">C66/$E$65</f>
         <v>-1.1813556042412601E-3</v>
       </c>
@@ -2418,7 +2443,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2429,7 +2454,7 @@
         <f t="shared" si="26"/>
         <v>-208097.99000000014</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <f t="shared" si="27"/>
         <v>-4.4795087858666184E-3</v>
       </c>
@@ -2437,7 +2462,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2448,7 +2473,7 @@
         <f t="shared" si="26"/>
         <v>-306668.28999999992</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <f>C68/$E$68</f>
         <v>-6.4936633151690846E-3</v>
       </c>
@@ -2459,7 +2484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2470,7 +2495,7 @@
         <f t="shared" si="26"/>
         <v>-431503.78999999963</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <f t="shared" ref="D69:D70" si="28">C69/$E$68</f>
         <v>-9.1370396707120341E-3</v>
       </c>
@@ -2478,7 +2503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2490,7 +2515,7 @@
         <f t="shared" si="26"/>
         <v>-567476.38999999966</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <f t="shared" si="28"/>
         <v>-1.2016242748696265E-2</v>
       </c>
@@ -2501,7 +2526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2512,7 +2537,7 @@
         <f t="shared" si="26"/>
         <v>-776645.08999999962</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <f>C71/$E$71</f>
         <v>-1.4272481676290963E-2</v>
       </c>
@@ -2523,7 +2548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2534,7 +2559,7 @@
         <f t="shared" si="26"/>
         <v>-911297.98999999953</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <f t="shared" ref="D72" si="29">C72/$E$71</f>
         <v>-1.6747010998184236E-2</v>
       </c>
@@ -2542,7 +2567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2553,18 +2578,18 @@
         <f t="shared" si="26"/>
         <v>-1407641.5899999996</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <f>C73/E73</f>
         <v>-3.0414406953731474E-2</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>46282066.00054384</v>
       </c>
       <c r="F73" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2575,7 +2600,7 @@
         <f>B74</f>
         <v>-16698.030000000032</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <f t="shared" ref="D74:D80" si="30">C74/$E$74</f>
         <v>-2.7668078753128429E-4</v>
       </c>
@@ -2586,7 +2611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2597,7 +2622,7 @@
         <f>B75+C74</f>
         <v>-92981.529999999795</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <f t="shared" si="30"/>
         <v>-1.5406729384402611E-3</v>
       </c>
@@ -2605,7 +2630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2616,7 +2641,7 @@
         <f t="shared" ref="C76:C80" si="31">B76+C75</f>
         <v>-192734.82999999961</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <f t="shared" si="30"/>
         <v>-3.1935518470806432E-3</v>
       </c>
@@ -2624,7 +2649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2635,15 +2660,18 @@
         <f t="shared" si="31"/>
         <v>-271919.62999999989</v>
       </c>
-      <c r="D77" s="7">
-        <f t="shared" si="30"/>
-        <v>-4.5056175712712976E-3</v>
+      <c r="D77" s="6">
+        <f>C77/$E$77</f>
+        <v>-3.412067089320864E-3</v>
+      </c>
+      <c r="E77">
+        <v>79693518</v>
       </c>
       <c r="F77" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2654,15 +2682,15 @@
         <f t="shared" si="31"/>
         <v>-434331.37999999966</v>
       </c>
-      <c r="D78" s="7">
-        <f t="shared" si="30"/>
-        <v>-7.1967260969077896E-3</v>
+      <c r="D78" s="6">
+        <f t="shared" ref="D78:D80" si="32">C78/$E$77</f>
+        <v>-5.4500214183040539E-3</v>
       </c>
       <c r="F78" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2673,28 +2701,27 @@
         <f t="shared" si="31"/>
         <v>-755975.78</v>
       </c>
-      <c r="D79" s="7">
-        <f t="shared" si="30"/>
-        <v>-1.2526266521558324E-2</v>
+      <c r="D79" s="6">
+        <f t="shared" si="32"/>
+        <v>-9.486038500646941E-3</v>
       </c>
       <c r="F79" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80">
         <v>-1945.300000000047</v>
       </c>
-      <c r="C80" s="3">
-        <f t="shared" si="31"/>
-        <v>-757921.08000000007</v>
-      </c>
-      <c r="D80" s="7">
-        <f t="shared" si="30"/>
-        <v>-1.2558499493710405E-2</v>
+      <c r="C80" s="8">
+        <v>-876628.7</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" si="32"/>
+        <v>-1.1000000025096143E-2</v>
       </c>
       <c r="F80" t="s">
         <v>85</v>

--- a/CHEQUEAR DEFICIT-PBI.xlsx
+++ b/CHEQUEAR DEFICIT-PBI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47149813-195C-49F9-BABC-0643E174F337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1166C57E-096D-4221-913A-7C53CF0E88BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -340,10 +340,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -435,7 +436,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -447,6 +448,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -751,15 +753,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -785,7 +787,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -808,10 +810,11 @@
         <v>6.5008632710493577E-2</v>
       </c>
       <c r="H2" s="7">
-        <v>-2.7668078753128429E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.766807875312843E-2</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -834,10 +837,11 @@
         <v>1.4356469117292398E-2</v>
       </c>
       <c r="H3" s="7">
-        <v>-1.5406729384402611E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.15406729384402612</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -860,10 +864,11 @@
         <v>-0.18673131334842027</v>
       </c>
       <c r="H4" s="7">
-        <v>-3.1935518470806432E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.31935518470806434</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -886,10 +891,11 @@
         <v>-0.17348652864884184</v>
       </c>
       <c r="H5" s="7">
-        <v>-3.412067089320864E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.34120670893208638</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -912,10 +918,11 @@
         <v>-0.11813556042412601</v>
       </c>
       <c r="H6" s="7">
-        <v>-5.4500214183040539E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.54500214183040541</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -938,10 +945,11 @@
         <v>-0.44795087858666183</v>
       </c>
       <c r="H7" s="7">
-        <v>-9.486038500646941E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.94860385006469405</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -964,10 +972,11 @@
         <v>-0.64936633151690848</v>
       </c>
       <c r="H8" s="7">
-        <v>-1.1000000025096143E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1.1000000025096144</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -991,7 +1000,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1015,7 +1024,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1039,7 +1048,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -1063,7 +1072,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -1096,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -2601,7 +2610,7 @@
         <v>-16698.030000000032</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" ref="D74:D80" si="30">C74/$E$74</f>
+        <f t="shared" ref="D74:D76" si="30">C74/$E$74</f>
         <v>-2.7668078753128429E-4</v>
       </c>
       <c r="E74">
@@ -2638,7 +2647,7 @@
         <v>-99753.299999999814</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" ref="C76:C80" si="31">B76+C75</f>
+        <f t="shared" ref="C76:C79" si="31">B76+C75</f>
         <v>-192734.82999999961</v>
       </c>
       <c r="D76" s="6">

--- a/CHEQUEAR DEFICIT-PBI.xlsx
+++ b/CHEQUEAR DEFICIT-PBI.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delva\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1166C57E-096D-4221-913A-7C53CF0E88BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
     <sheet name="CALCULO" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>indice_tiempo</t>
   </si>
@@ -331,22 +325,18 @@
   </si>
   <si>
     <t>DICIEMBRE</t>
-  </si>
-  <si>
-    <t>En el mes de septiembre se registraron $427.401 millones provenientes de la asignación extraordinaria de Derechos Especiales de Giro (DEG) que el FMI efectuó en el contexto de la crisis global por la pandemia del COVID-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +369,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -436,7 +433,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -448,7 +445,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -752,16 +751,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -787,7 +786,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -810,11 +809,10 @@
         <v>6.5008632710493577E-2</v>
       </c>
       <c r="H2" s="7">
-        <v>-2.766807875312843E-2</v>
-      </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-2.7722296076026106E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -837,11 +835,10 @@
         <v>1.4356469117292398E-2</v>
       </c>
       <c r="H3" s="7">
-        <v>-0.15406729384402612</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.15436919829835574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -864,11 +861,10 @@
         <v>-0.18673131334842027</v>
       </c>
       <c r="H4" s="7">
-        <v>-0.31935518470806434</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.31998098107516504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -891,11 +887,10 @@
         <v>-0.17348652864884184</v>
       </c>
       <c r="H5" s="7">
-        <v>-0.34120670893208638</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.34844526088713551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -918,11 +913,10 @@
         <v>-0.11813556042412601</v>
       </c>
       <c r="H6" s="7">
-        <v>-0.54500214183040541</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.55656412527322696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -945,11 +939,10 @@
         <v>-0.44795087858666183</v>
       </c>
       <c r="H7" s="7">
-        <v>-0.94860385006469405</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.96872806824007462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -972,11 +965,10 @@
         <v>-0.64936633151690848</v>
       </c>
       <c r="H8" s="7">
-        <v>-1.1000000025096144</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-1.1233360242239612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -998,9 +990,11 @@
       <c r="G9" s="7">
         <v>-0.91370396707120338</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
+        <v>-1.4112826250260004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1024,7 +1018,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1048,7 +1042,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -1072,7 +1066,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -1102,21 +1096,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="D74" sqref="D74:D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1152,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1373,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1395,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1414,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1439,7 +1433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1499,7 +1493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1521,7 +1515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1540,7 +1534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1594,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1644,7 +1638,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1663,7 +1657,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1682,7 +1676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1704,7 +1698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1742,7 +1736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1783,7 +1777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1802,7 +1796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +1859,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1887,7 +1881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1906,7 +1900,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1925,7 +1919,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1947,7 +1941,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1966,7 +1960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1985,7 +1979,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2007,7 +2001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2020,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2045,7 +2039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2067,7 +2061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2086,7 +2080,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2108,7 +2102,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2130,7 +2124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2149,7 +2143,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2168,7 +2162,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2190,7 +2184,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2209,7 +2203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2228,7 +2222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2250,7 +2244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2269,7 +2263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2288,7 +2282,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2310,7 +2304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2329,7 +2323,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2351,7 +2345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2373,7 +2367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2392,7 +2386,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2411,7 +2405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2433,7 +2427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2452,7 +2446,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2471,7 +2465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2493,7 +2487,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2512,7 +2506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2531,11 +2525,8 @@
       <c r="F70" t="s">
         <v>85</v>
       </c>
-      <c r="H70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2557,7 +2548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2576,7 +2567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2598,7 +2589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2610,17 +2601,18 @@
         <v>-16698.030000000032</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" ref="D74:D76" si="30">C74/$E$74</f>
-        <v>-2.7668078753128429E-4</v>
+        <f>C74/$E$74</f>
+        <v>-2.7722296076026104E-4</v>
       </c>
       <c r="E74">
-        <v>60351245.017733604</v>
+        <v>60233214.284296885</v>
       </c>
       <c r="F74" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2632,14 +2624,15 @@
         <v>-92981.529999999795</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="30"/>
-        <v>-1.5406729384402611E-3</v>
+        <f t="shared" ref="D74:D76" si="30">C75/$E$74</f>
+        <v>-1.5436919829835574E-3</v>
       </c>
       <c r="F75" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2647,18 +2640,19 @@
         <v>-99753.299999999814</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" ref="C76:C79" si="31">B76+C75</f>
+        <f t="shared" ref="C76:C81" si="31">B76+C75</f>
         <v>-192734.82999999961</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="30"/>
-        <v>-3.1935518470806432E-3</v>
+        <v>-3.1998098107516504E-3</v>
       </c>
       <c r="F76" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2671,16 +2665,17 @@
       </c>
       <c r="D77" s="6">
         <f>C77/$E$77</f>
-        <v>-3.412067089320864E-3</v>
+        <v>-3.4844526088713551E-3</v>
       </c>
       <c r="E77">
-        <v>79693518</v>
+        <v>78037976.268552855</v>
       </c>
       <c r="F77" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2692,14 +2687,15 @@
         <v>-434331.37999999966</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" ref="D78:D80" si="32">C78/$E$77</f>
-        <v>-5.4500214183040539E-3</v>
+        <f t="shared" ref="D78:D81" si="32">C78/$E$77</f>
+        <v>-5.5656412527322697E-3</v>
       </c>
       <c r="F78" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2712,13 +2708,14 @@
       </c>
       <c r="D79" s="6">
         <f t="shared" si="32"/>
-        <v>-9.486038500646941E-3</v>
+        <v>-9.6872806824007465E-3</v>
       </c>
       <c r="F79" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2730,11 +2727,38 @@
       </c>
       <c r="D80" s="6">
         <f t="shared" si="32"/>
-        <v>-1.1000000025096143E-2</v>
+        <v>-1.1233360242239612E-2</v>
       </c>
       <c r="F80" t="s">
         <v>85</v>
       </c>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="9">
+        <v>44775</v>
+      </c>
+      <c r="B81">
+        <v>-224707.7</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="31"/>
+        <v>-1101336.3999999999</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" si="32"/>
+        <v>-1.4112826250260004E-2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="83" spans="1:9" ht="18">
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:9" ht="18">
+      <c r="H84" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
